--- a/biology/Zoologie/Juditha_dorilis/Juditha_dorilis.xlsx
+++ b/biology/Zoologie/Juditha_dorilis/Juditha_dorilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juditha dorilis est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Juditha.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juditha dorilis a été décrit par Henry Walter Bates en 1866 sous le nom de Nymphidium dorilis[1]
-Nom vernaculaire
-Juditha dorilis se nomme Dorilis Metalmark en anglais [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha dorilis a été décrit par Henry Walter Bates en 1866 sous le nom de Nymphidium dorilis
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juditha dorilis est un papillon à l'apex des ailes antérieures formant un angle bien marqué, de couleur ocre roux avec une large à très large bande jaune à orangée qui coupe les ailes postérieures et partiellement les ailes antérieures (ne va pas jusqu'au bord costal) et une ligne submarginale de points marron cernées d'une fine ligne jaune à orange.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha dorilis se nomme Dorilis Metalmark en anglais .
 </t>
         </is>
       </c>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante hôte
-Ochroma lagapus est une plante hôte de sa chenille[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha dorilis est un papillon à l'apex des ailes antérieures formant un angle bien marqué, de couleur ocre roux avec une large à très large bande jaune à orangée qui coupe les ailes postérieures et partiellement les ailes antérieures (ne va pas jusqu'au bord costal) et une ligne submarginale de points marron cernées d'une fine ligne jaune à orange.
 </t>
         </is>
       </c>
@@ -604,15 +623,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ochroma lagapus est une plante hôte de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juditha_dorilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_dorilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juditha azan est présent au Costa Rica, au Nicaragua, à Panama, en Équateur et en Guyane [1].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha azan est présent au Costa Rica, au Nicaragua, à Panama, en Équateur et en Guyane .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Juditha_dorilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_dorilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
